--- a/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,6 +281,16 @@
   </si>
   <si>
     <t>Statut de l’entrée</t>
+  </si>
+  <si>
+    <t>fr-lm-traitement-subordonne.frequenceAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Fréquence d'administration</t>
   </si>
   <si>
     <t>fr-lm-traitement-subordonne.doseAadministrer</t>
@@ -621,7 +631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -630,8 +640,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.53515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -661,7 +671,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.53515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="43.44140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1305,13 +1315,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1379,10 +1389,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1390,7 +1400,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>79</v>
@@ -1405,7 +1415,7 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>95</v>
@@ -1462,10 +1472,10 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -1490,10 +1500,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1565,15 +1575,115 @@
         <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH9" t="s" s="2">
+      <c r="G10" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AI9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
+      <c r="H10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-traitement-subordonne.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
